--- a/MiniProject/전기차 정보.xlsx
+++ b/MiniProject/전기차 정보.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchan\git\MiniProject\MiniProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22056" windowHeight="9240"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22060" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>carNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,12 +125,50 @@
   <si>
     <t>혼다 어코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/sm3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/soul.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/ionic.png</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/leaf.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/vol.png</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/q50s.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/ct200h.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/lc500h.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/twizi.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/tesla.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/prius.jpg</t>
+  </si>
+  <si>
+    <t>${pageContext.request.contextPath}/img/img_car/accode.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,6 +222,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -226,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,18 +518,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,8 +568,11 @@
       <c r="E2">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -542,8 +591,11 @@
       <c r="F3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,8 +614,11 @@
       <c r="F4">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -579,8 +634,11 @@
       <c r="E5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -599,8 +657,11 @@
       <c r="F6">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -616,8 +677,11 @@
       <c r="F7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -633,8 +697,11 @@
       <c r="F8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -650,8 +717,11 @@
       <c r="F9">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -670,8 +740,11 @@
       <c r="F10">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -687,8 +760,11 @@
       <c r="E11">
         <v>470</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -704,8 +780,11 @@
       <c r="F12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -720,11 +799,15 @@
       </c>
       <c r="F13">
         <v>19.3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -734,7 +817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,7 +830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiniProject/전기차 정보.xlsx
+++ b/MiniProject/전기차 정보.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchan\git\MiniProject\MiniProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22060" windowHeight="9240"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22056" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,48 +122,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${pageContext.request.contextPath}/img/img_car/sm3.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/soul.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/ionic.png</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/leaf.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/vol.png</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/q50s.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/ct200h.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/lc500h.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/twizi.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/tesla.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/prius.jpg</t>
-  </si>
-  <si>
-    <t>${pageContext.request.contextPath}/img/img_car/accode.jpg</t>
+    <t>img/img_car/sm3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/soul.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/ionic.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/leaf.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/q50s.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/ct200h.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/lc500h.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/twizi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/tesla.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/prius.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/accode.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/img_car/volt.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,18 +523,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="15.4140625" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" customWidth="1"/>
-    <col min="7" max="7" width="19.4140625" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="16.95" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,7 +577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,7 +600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -618,7 +623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -638,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -658,10 +663,10 @@
         <v>5.5</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -678,10 +683,10 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -698,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -718,10 +723,10 @@
         <v>10.9</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -741,10 +746,10 @@
         <v>7.9</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -761,10 +766,10 @@
         <v>470</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -781,10 +786,10 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -801,7 +806,7 @@
         <v>19.3</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +822,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -830,7 +835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
